--- a/word/8.毕业设计答辩评分表.xlsx
+++ b/word/8.毕业设计答辩评分表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\毕业设计\fcos_implementation\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6915DC2A-7B09-4CC0-B9C4-492609FC8AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EC2BF1-2F9E-4A83-B37C-A48EFEAFBD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,7 +707,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t xml:space="preserve"> 6% </t>
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1051,6 +1051,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1062,9 +1065,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1755,7 +1755,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1789,7 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="21"/>
@@ -1801,21 +1801,21 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
@@ -2179,24 +2179,24 @@
       <c r="B29" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/word/8.毕业设计答辩评分表.xlsx
+++ b/word/8.毕业设计答辩评分表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\毕业设计\fcos_implementation\word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\毕业设计\fcos_implementation\word\材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EC2BF1-2F9E-4A83-B37C-A48EFEAFBD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4704C1D3-A949-4076-A19C-34E2D26687D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,119 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>计算机学院软件工程专业本科毕业设计（论文）口头答辩评分表（答辩教师用）</t>
   </si>
   <si>
     <t> </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学生姓名：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 班级：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 学号：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>题目：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 查重结果：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10.5"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>W</t>
-    </r>
   </si>
   <si>
     <t>评分内容及标准</t>
@@ -709,14 +602,125 @@
       </rPr>
       <t xml:space="preserve"> 6% </t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、能够具备一定的国际视野，掌握一门外语，能够了解和跟踪软件工程专业的最新发展趋势，具有跨文化交流和沟通能力</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>学生姓名：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   陶润洲  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  班级：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  08111606  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 学号：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  1120162055  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 题目：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 无锚点框的全卷积单阶段目标检测方法研究 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 查重结果：</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 6% </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,13 +790,6 @@
       <u/>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.5"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1051,7 +1048,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,7 +1341,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A27"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1380,8 +1377,8 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>2</v>
+      <c r="A3" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -1393,10 +1390,10 @@
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="3"/>
@@ -1408,10 +1405,10 @@
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1421,7 +1418,7 @@
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -1437,7 +1434,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1449,7 +1446,7 @@
     </row>
     <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1461,7 +1458,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1473,7 +1470,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1485,7 +1482,7 @@
     </row>
     <row r="11" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1497,7 +1494,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1509,7 +1506,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1521,7 +1518,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1533,7 +1530,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1545,7 +1542,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1569,7 +1566,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1581,7 +1578,7 @@
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>1</v>
@@ -1597,7 +1594,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -1609,7 +1606,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1621,7 +1618,7 @@
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1</v>
@@ -1637,7 +1634,7 @@
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="15" t="s">
@@ -1651,7 +1648,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1663,7 +1660,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1675,7 +1672,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1687,7 +1684,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1699,7 +1696,7 @@
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>1</v>
@@ -1725,7 +1722,7 @@
     </row>
     <row r="30" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -1744,9 +1741,9 @@
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A4:A5"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1755,7 +1752,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1766,7 +1763,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1790,7 +1787,7 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -1802,10 +1799,10 @@
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>4</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -1817,30 +1814,30 @@
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -1866,7 +1863,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1878,7 +1875,7 @@
     </row>
     <row r="8" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1890,7 +1887,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1902,7 +1899,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1914,7 +1911,7 @@
     </row>
     <row r="11" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1926,7 +1923,7 @@
     </row>
     <row r="12" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1938,7 +1935,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1950,7 +1947,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1962,7 +1959,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1974,7 +1971,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1998,7 +1995,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2010,7 +2007,7 @@
     </row>
     <row r="19" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>1</v>
@@ -2036,7 +2033,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2048,7 +2045,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2060,7 +2057,7 @@
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1</v>
@@ -2086,7 +2083,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2100,7 +2097,7 @@
     </row>
     <row r="24" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2112,7 +2109,7 @@
     </row>
     <row r="25" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2124,7 +2121,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2136,7 +2133,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -2148,7 +2145,7 @@
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>1</v>
@@ -2174,7 +2171,7 @@
     </row>
     <row r="29" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>1</v>
@@ -2188,7 +2185,7 @@
     </row>
     <row r="30" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -2207,7 +2204,7 @@
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A4:A5"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
